--- a/genSQL/file/demo2.xlsx
+++ b/genSQL/file/demo2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongwei/coder/pythoner/justPython/genSQL/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C5BB05-A520-3541-A95D-C1C1A6ACD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D24D1B9-A397-0A4E-8CA8-EE09A076A2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{F6E5F477-0B2D-D34F-97B2-764FE8E5A7E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>column</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +611,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -655,7 +659,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
